--- a/interaction_site_dist.xlsx
+++ b/interaction_site_dist.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/interaction_site_dist.xlsx
+++ b/interaction_site_dist.xlsx
@@ -522,7 +522,7 @@
         <v>-5.273975356991319</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.190752625531916</v>
+        <v>-5.136807589250001</v>
       </c>
       <c r="F3" t="n">
         <v>-5.534841717647059</v>
@@ -531,7 +531,7 @@
         <v>-5.100146716953488</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.549872724261363</v>
+        <v>-5.511457319636364</v>
       </c>
       <c r="I3" t="n">
         <v>-5.328037448255813</v>
@@ -553,7 +553,7 @@
         <v>0.8650530203611869</v>
       </c>
       <c r="E4" t="n">
-        <v>1.111517800863939</v>
+        <v>0.8845914900443748</v>
       </c>
       <c r="F4" t="n">
         <v>0.9200984648979297</v>
@@ -562,7 +562,7 @@
         <v>0.7422794151421426</v>
       </c>
       <c r="H4" t="n">
-        <v>1.064856777277211</v>
+        <v>0.9169238112135869</v>
       </c>
       <c r="I4" t="n">
         <v>0.8662305628149233</v>
@@ -584,7 +584,7 @@
         <v>-9.1299198</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.85297</v>
+        <v>-8.385684299999999</v>
       </c>
       <c r="F5" t="n">
         <v>-8.273217000000001</v>
@@ -593,7 +593,7 @@
         <v>-6.7956641</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.85297</v>
+        <v>-8.385684299999999</v>
       </c>
       <c r="I5" t="n">
         <v>-9.1299198</v>
